--- a/planilhas/coleta_paulo.xlsx
+++ b/planilhas/coleta_paulo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,12 +565,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BEBE BÁSICO</t>
+          <t>BRECHO COLETANEA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Americas, 19019 - Recreio Shopping </t>
+          <t>Av. Americas, 19019 - Recreio Shopping Loja 334</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -578,12 +578,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRECHO COLETANEA</t>
+          <t>BIDUS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Av. Americas, 19019 - Recreio Shopping Loja 334</t>
+          <t>Av. José Luiz Ferraz, 55 Ed Home Ways  Apto 505</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -591,12 +591,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BIDUS</t>
+          <t>Tatiana javaroni</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Av. José Luiz Ferraz, 55 Ed Home Ways  Apto 505</t>
+          <t>Rua Alberto Bianchi, 380 Casa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -604,12 +604,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TZ CORONEL</t>
+          <t>OIA (BARRA WORLD)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Av José Luiz  Ferraz, 400 Bloco 1 - 306</t>
+          <t xml:space="preserve">Av das Américas, 17701 306 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -617,12 +617,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tatiana javaroni</t>
+          <t>NALA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rua Alberto Bianchi, 380 Casa</t>
+          <t>Rua Frederico Quartarolli, 360 -   Loja K</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -630,12 +630,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OIA (BARRA WORLD)</t>
+          <t>LNROCHA / Laura Novaes</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av das Américas, 17701 306 </t>
+          <t xml:space="preserve">Av. Gilka Machado, 1000 - Apto 203 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -643,12 +643,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NALA</t>
+          <t>Rio leiloes</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rua Frederico Quartarolli, 360 -   Loja K</t>
+          <t>Rua Paulo José Mahfud, 24  casa 12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -656,12 +656,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LNROCHA / Laura Novaes</t>
+          <t>Gaisa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Gilka Machado, 1000 - Apto 203 </t>
+          <t>Rua Luiz Paulistano, 395 - 203</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -669,12 +669,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Rio leiloes</t>
+          <t>MJ ARTE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rua Paulo José Mahfud, 24  casa 12</t>
+          <t>Rua Jarbas de Carvalho, 1409 apto 301</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -682,12 +682,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gaisa</t>
+          <t>SOPRORIO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rua Luiz Paulistano, 395 - 203</t>
+          <t>Rua Venâncio Veloso, 655 - Apto 302</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -695,12 +695,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MJ ARTE</t>
+          <t>SERVICE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rua Jarbas de Carvalho, 1409 apto 301</t>
+          <t>Rua Fernando Leite Mendes, 61 Sala 303</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -708,12 +708,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOPRORIO</t>
+          <t xml:space="preserve">RCPAES </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rua Venâncio Veloso, 655 - Apto 302</t>
+          <t xml:space="preserve">Rua Gustavo Corção, 130 Apto 203 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -721,12 +721,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HABITO</t>
+          <t xml:space="preserve">RIOEYEWEAR </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rua Alberto Cavalcanti, 64 Loja Hábito</t>
+          <t>Rua Guilherme  Baptista 215/201</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -734,12 +734,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SERVICE</t>
+          <t>QUATORZEONZE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rua Fernando Leite Mendes, 61 Sala 303</t>
+          <t>Rua Professor Taciel Cylenno, 100 - 202</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -747,12 +747,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCPAES </t>
+          <t>BAY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Gustavo Corção, 130 Apto 203 </t>
+          <t>Av. Alfredo Balthazar da Silveira, 1172 - 203</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -760,12 +760,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">RIOEYEWEAR </t>
+          <t xml:space="preserve">GABYHAIR </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rua Guilherme  Baptista 215/201</t>
+          <t>Av. Alfredo Balthazar da Silveira, 580 Lj 135B Set Árabe</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -773,12 +773,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>QUATORZEONZE</t>
+          <t xml:space="preserve">EMPORIO UP </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rua Professor Taciel Cylenno, 100 - 202</t>
+          <t xml:space="preserve">Av. Alfredo Balthazar da Silveira, 580 Loja 123c setor Itália Piso 1  </t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -786,12 +786,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BAY</t>
+          <t>JUA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Av. Alfredo Balthazar da Silveira, 1172 - 203</t>
+          <t xml:space="preserve">Av. Alfredo Balthazar da Silveira, 580 Loja 135C Setor </t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -799,12 +799,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">GABYHAIR </t>
+          <t>WAVVE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Av. Alfredo Balthazar da Silveira, 580 Lj 135B Set Árabe</t>
+          <t xml:space="preserve">Av. Alfredo Balthazar da Silveira, 580 </t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -812,33 +812,41 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">EMPORIO UP </t>
+          <t>ETHOS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Alfredo Balthazar da Silveira, 580 Loja 123c setor Itália Piso 1  </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t xml:space="preserve">Av. Balthazar da Silveira, 580 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loja C Italia </t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JUA</t>
+          <t>OIA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Alfredo Balthazar da Silveira, 580 Loja 135C Setor </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t xml:space="preserve">Av. Alfredo Balthazar da Silveira, 580 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loja 245 C </t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WAVVE</t>
+          <t>Mahauleo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -851,46 +859,38 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ETHOS</t>
+          <t>Like na Angel</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Balthazar da Silveira, 580 </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loja C Italia </t>
-        </is>
-      </c>
+          <t xml:space="preserve">Av. Alfredo Balthazar da Silveira, 580 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OIA</t>
+          <t>OIA (BARRA BALI)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Alfredo Balthazar da Silveira, 580 </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loja 245 C </t>
-        </is>
-      </c>
+          <t>Rua marlo da costa e souza 135 bl 2 405</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mahauleo</t>
+          <t>BVIP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Alfredo Balthazar da Silveira, 580 </t>
+          <t>Av. Djalma Ribeiro, 25</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Like na Angel</t>
+          <t>CLAMODAS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Alfredo Balthazar da Silveira, 580 </t>
+          <t xml:space="preserve">Av. das Américas, 13685 Loja subsolo A4 Offices </t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -911,12 +911,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OIA (BARRA BALI)</t>
+          <t>MAGIC NAILS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Rua marlo da costa e souza 135 bl 2 405</t>
+          <t xml:space="preserve">Av. Salvador Allende, 6700 Lj 106 Subsolo </t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -924,12 +924,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BVIP</t>
+          <t>SDCARIOCA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Av. Djalma Ribeiro, 25</t>
+          <t>Av. Salvador Allende, 6700 loja 121</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -937,12 +937,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CLAMODAS</t>
+          <t>GUSMANIA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das Américas, 13685 Loja subsolo A4 Offices </t>
+          <t>Av. Salvador Allende, 6700 Sala 232</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -950,12 +950,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MAGIC NAILS</t>
+          <t>LUBI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Salvador Allende, 6700 Lj 106 Subsolo </t>
+          <t xml:space="preserve">Av. das Américas, 12900 Lj 121 Bloco 1 </t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -963,12 +963,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SDCARIOCA</t>
+          <t xml:space="preserve">ORION </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Av. Salvador Allende, 6700 loja 121</t>
+          <t xml:space="preserve">Av. das Américas, 12900 Bl B - 303 </t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -976,25 +976,29 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GUSMANIA</t>
+          <t>INNSEX</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Av. Salvador Allende, 6700 Sala 232</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>Av. das Américas, 12900</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Bloco 1 Ala Equador Sala 311</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LUBI</t>
+          <t>INCANTTI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das Américas, 12900 Lj 121 Bloco 1 </t>
+          <t>Rua José zanine caldas, 162 casa 1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1002,12 +1006,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ORION </t>
+          <t>Maria Helena</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das Américas, 12900 Bl B - 303 </t>
+          <t xml:space="preserve">Rua Paulo Klabin, 62 Casa 2 </t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1015,29 +1019,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INNSEX</t>
+          <t>LM / Leandro</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Av. das Américas, 12900</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Bloco 1 Ala Equador Sala 311</t>
-        </is>
-      </c>
+          <t>Rua Prof. Luiza Nogueira Gonçalves, 350 Bl2 Lj110</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INCANTTI</t>
+          <t xml:space="preserve">SEJABE </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Rua José zanine caldas, 162 casa 1</t>
+          <t xml:space="preserve">Rua Walmor Chagas 80 Casa 1 Cond Bothanica Nature </t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1045,12 +1045,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Maria Helena</t>
+          <t>MK</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Paulo Klabin, 62 Casa 2 </t>
+          <t>Av. das Américas, 15500 Shopping Américas Piso 2 lj 257</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1058,12 +1058,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LM / Leandro</t>
+          <t xml:space="preserve">COMUNICARE </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Rua Prof. Luiza Nogueira Gonçalves, 350 Bl2 Lj110</t>
+          <t>Av. das Américas, 15700 Loja 101 e 102 Time CENTER</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1071,12 +1071,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEJABE </t>
+          <t xml:space="preserve">MARYFASHION </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Walmor Chagas 80 Casa 1 Cond Bothanica Nature </t>
+          <t>Av das Américas, 15700 Sala 129</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1084,12 +1084,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MK</t>
+          <t>Bondai</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Av. das Américas, 15500 Shopping Américas Piso 2 lj 257</t>
+          <t>Av. das américas, 16150 - 302</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1097,12 +1097,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">COMUNICARE </t>
+          <t>SIRENA DEL MARE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Av. das Américas, 15700 Loja 101 e 102 Time CENTER</t>
+          <t xml:space="preserve">Rua doutor crespo, 174 Casa 16 </t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1110,12 +1110,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">MARYFASHION </t>
+          <t>VMAUTO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Av das Américas, 15700 Sala 129</t>
+          <t>Av. das américas, 17150 Bl1 Sala 431</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bondai</t>
+          <t>TAIKA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Av. das américas, 16150 - 302</t>
+          <t>Av. das Américas, 17400</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1136,12 +1136,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SIRENA DEL MARE</t>
+          <t>ELITE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua doutor crespo, 174 Casa 16 </t>
+          <t>Av. das Américas, 18000 205 A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1149,12 +1149,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>VMAUTO</t>
+          <t>GESTEIRA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Av. das américas, 17150 Bl1 Sala 431</t>
+          <t>Av. das Américas, 18500 - 627  547</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1162,12 +1162,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TAIKA</t>
+          <t>PETITE BEBE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Av. das Américas, 17400</t>
+          <t xml:space="preserve">Av das Américas, 19000 cond terra americas  433 cs 2 </t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1175,12 +1175,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ELITE</t>
+          <t>FREEANGEL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Av. das Américas, 18000 205 A</t>
+          <t>Av. das Américas, 20007 Sl 221 BL1 Prédio Everglade</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1188,12 +1188,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GESTEIRA</t>
+          <t>ATREND QUERO OURO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Av. das Américas, 18500 - 627  547</t>
+          <t>Av. das Américas, 19005 Torre 1 Sala 801</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1201,12 +1201,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PETITE BEBE</t>
+          <t xml:space="preserve">AGRO RIO </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av das Américas, 19000 cond terra americas  433 cs 2 </t>
+          <t>Av. das Américas, 19005 BL 2  SL 817</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1214,12 +1214,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FREEANGEL</t>
+          <t>UOKTOK</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Av. das Américas, 20007 Sl 221 BL1 Prédio Everglade</t>
+          <t xml:space="preserve">Av. das Américas, 19005 Torre 1 Sl 501 </t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1227,12 +1227,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ATREND QUERO OURO</t>
+          <t xml:space="preserve">MAXIM GROUP </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Av. das Américas, 19005 Torre 1 Sala 801</t>
+          <t>Av das Américas, 19005 Torre 2 Sl 421</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1240,41 +1240,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">AGRO RIO </t>
+          <t>Super Essencias</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Av. das Américas, 19005 BL 2  SL 817</t>
+          <t>Rua</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>UOKTOK</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Av. das Américas, 19005 Torre 1 Sl 501 </t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MAXIM GROUP </t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Av das Américas, 19005 Torre 2 Sl 421</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
